--- a/biology/Botanique/Graphorchis_medemiae/Graphorchis_medemiae.xlsx
+++ b/biology/Botanique/Graphorchis_medemiae/Graphorchis_medemiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graphorchis medemiae ou Graphorkis medemiae est une espèce d'orchidée endémique à Madagascar.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lissochilus medemiae (Schltr.) H.Perrier
 Eulophiopsis medemiae (Schltr.) Schltr.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été découverte en 1933 dans le district de Soalala.
 En 2007 il ne subsistait qu'un seule population dans la Province de Majunga. L'espèce est en danger critique d'extinction du fait des feux de forêt et de la destruction de l'habitat.
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce épiphyte, poussant uniquement sur les troncs de Bismarckia nobilis (Medemia nobilis est un nom synonyme de Bismarckia nobilis, d'où le nom donné à l'espèce) 
 </t>
